--- a/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Notes:</t>
   </si>
@@ -26,9 +26,6 @@
     <t>coal</t>
   </si>
   <si>
-    <t>natural gas</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -50,34 +47,31 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>(Low numbers mean higher priority, which means the contracted dispatch percentage</t>
-  </si>
-  <si>
-    <t>of these sources will be dispatched before the contracted dispatch percentages of</t>
-  </si>
-  <si>
-    <t>lower-priority sources.)</t>
-  </si>
-  <si>
     <t>BDPbES BAU Dispatch Priority by Electricity Source</t>
   </si>
   <si>
-    <t>when "Boolean Use Contract Based Dispatch Priority in BAU Case" is enabled.</t>
-  </si>
-  <si>
-    <t>The United States does not use contract-based dispatch in the BAU case.</t>
-  </si>
-  <si>
-    <t>Accordingly, there is no source information here.</t>
-  </si>
-  <si>
-    <t>As an example, we provide a priority ordering that favors coal and natural gas,</t>
-  </si>
-  <si>
-    <t>which provides a contrast to the environmentally-preferred example dispatch order</t>
-  </si>
-  <si>
-    <t>provided in the Policy case.</t>
+    <t>natural gas nonpeaker</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>natural gas peaker</t>
+  </si>
+  <si>
+    <t>for purposes of guaranteed dispatch.</t>
+  </si>
+  <si>
+    <t>We assign priority 1 to natural gas peaker and petroleum-fired plants, which are the</t>
+  </si>
+  <si>
+    <t>for the United States.  We arbitrarily assign priority 2 to all other plant types.</t>
+  </si>
+  <si>
+    <t>only types for which a non-zero quantity is specified for guaranteed dispatch in the BAU case</t>
   </si>
 </sst>
 </file>
@@ -428,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,7 +430,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -454,44 +448,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -505,19 +474,19 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,20 +494,20 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -546,7 +515,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -554,34 +523,58 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Notes:</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>biomass</t>
-  </si>
-  <si>
-    <t>Priority</t>
   </si>
   <si>
     <t>BDPbES BAU Dispatch Priority by Electricity Source</t>
@@ -430,7 +427,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -445,22 +442,22 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -474,106 +471,1751 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>9</v>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+      <c r="G1">
+        <v>2020</v>
+      </c>
+      <c r="H1">
+        <v>2021</v>
+      </c>
+      <c r="I1">
+        <v>2022</v>
+      </c>
+      <c r="J1">
+        <v>2023</v>
+      </c>
+      <c r="K1">
+        <v>2024</v>
+      </c>
+      <c r="L1">
+        <v>2025</v>
+      </c>
+      <c r="M1">
+        <v>2026</v>
+      </c>
+      <c r="N1">
+        <v>2027</v>
+      </c>
+      <c r="O1">
+        <v>2028</v>
+      </c>
+      <c r="P1">
+        <v>2029</v>
+      </c>
+      <c r="Q1">
+        <v>2030</v>
+      </c>
+      <c r="R1">
+        <v>2031</v>
+      </c>
+      <c r="S1">
+        <v>2032</v>
+      </c>
+      <c r="T1">
+        <v>2033</v>
+      </c>
+      <c r="U1">
+        <v>2034</v>
+      </c>
+      <c r="V1">
+        <v>2035</v>
+      </c>
+      <c r="W1">
+        <v>2036</v>
+      </c>
+      <c r="X1">
+        <v>2037</v>
+      </c>
+      <c r="Y1">
+        <v>2038</v>
+      </c>
+      <c r="Z1">
+        <v>2039</v>
+      </c>
+      <c r="AA1">
+        <v>2040</v>
+      </c>
+      <c r="AB1">
+        <v>2041</v>
+      </c>
+      <c r="AC1">
+        <v>2042</v>
+      </c>
+      <c r="AD1">
+        <v>2043</v>
+      </c>
+      <c r="AE1">
+        <v>2044</v>
+      </c>
+      <c r="AF1">
+        <v>2045</v>
+      </c>
+      <c r="AG1">
+        <v>2046</v>
+      </c>
+      <c r="AH1">
+        <v>2047</v>
+      </c>
+      <c r="AI1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1">
+        <v>2049</v>
+      </c>
+      <c r="AK1">
+        <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
+      <c r="C2">
+        <f>$B2</f>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:AK9" si="0">$B2</f>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <f t="shared" ref="C3:R12" si="1">$B3</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" ref="D9:AK12" si="2">$B9</f>
+        <v>2</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>2</v>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
       <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>

--- a/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Notes:</t>
   </si>
@@ -23,16 +23,10 @@
     <t>This variable is used to specify the priority ordering of the different electricity sources</t>
   </si>
   <si>
-    <t>coal</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
     <t>hydro</t>
-  </si>
-  <si>
-    <t>wind</t>
   </si>
   <si>
     <t>solar PV</t>
@@ -69,6 +63,18 @@
   </si>
   <si>
     <t>only types for which a non-zero quantity is specified for guaranteed dispatch in the BAU case</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
   </si>
 </sst>
 </file>
@@ -427,7 +433,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -442,22 +448,22 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -471,7 +477,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -593,7 +599,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -741,7 +747,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -889,7 +895,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1037,7 +1043,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1185,7 +1191,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1333,7 +1339,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1481,7 +1487,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1629,7 +1635,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1767,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="AJ9">
-        <f t="shared" ref="D9:AK12" si="2">$B9</f>
+        <f t="shared" ref="D9:AK14" si="2">$B9</f>
         <v>2</v>
       </c>
       <c r="AK9">
@@ -1777,7 +1783,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1925,7 +1931,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2073,7 +2079,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2217,6 +2223,302 @@
       <c r="AK12">
         <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f>$B13</f>
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f>$B14</f>
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BDPbES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Notes:</t>
   </si>
@@ -76,11 +81,23 @@
   <si>
     <t>offshore wind</t>
   </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Priority Order (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,11 +135,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -133,6 +153,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -181,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,7 +239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,7 +500,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -487,7 +510,10 @@
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B1" s="2">
         <v>2015</v>
       </c>
@@ -1773,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="AJ9">
-        <f t="shared" ref="D9:AK14" si="2">$B9</f>
+        <f t="shared" ref="D9:AK17" si="2">$B9</f>
         <v>2</v>
       </c>
       <c r="AK9">
@@ -2518,6 +2544,450 @@
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C17" si="3">$B15</f>
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ref="S17:AK17" si="4">$B17</f>
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>

--- a/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\BDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EAA5C7-1C89-4D35-950C-D882EA550009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
+    <workbookView xWindow="30255" yWindow="480" windowWidth="23445" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Notes:</t>
   </si>
@@ -44,9 +57,6 @@
   </si>
   <si>
     <t>BDPbES BAU Dispatch Priority by Electricity Source</t>
-  </si>
-  <si>
-    <t>natural gas nonpeaker</t>
   </si>
   <si>
     <t>geothermal</t>
@@ -93,11 +103,17 @@
   <si>
     <t>Priority Order (dimensionless)</t>
   </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,6 +253,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -272,6 +305,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,7 +497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -471,22 +521,22 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -496,23 +546,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK17"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
         <v>2015</v>
@@ -625,7 +675,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -635,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:AK9" si="0">$B2</f>
+        <f t="shared" ref="D2:AK10" si="0">$B2</f>
         <v>2</v>
       </c>
       <c r="E2">
@@ -773,13 +823,13 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:R12" si="1">$B3</f>
+        <f t="shared" ref="C3:R13" si="1">$B3</f>
         <v>2</v>
       </c>
       <c r="D3">
@@ -921,7 +971,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -931,145 +981,145 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="S4:AK4" si="2">$B4</f>
         <v>2</v>
       </c>
       <c r="T4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="X4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1217,7 +1267,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1365,7 +1415,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1513,7 +1563,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1661,7 +1711,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1799,17 +1849,17 @@
         <v>2</v>
       </c>
       <c r="AJ9">
-        <f t="shared" ref="D9:AK17" si="2">$B9</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1819,293 +1869,293 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="S10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="T10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="U10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="V10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="W10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="X10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D10:AK18" si="3">$B10</f>
         <v>2</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="R11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="U11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="V11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="W11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="X11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2115,293 +2165,293 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <f>$B13</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="R13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="S13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="V13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="W13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="X13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2411,583 +2461,731 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="R14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="S14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="T14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="U14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="X14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C17" si="3">$B15</f>
+        <f>$B15</f>
         <v>2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="P15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="R15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="S15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="T15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="U15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="X15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C16:C18" si="4">$B16</f>
         <v>2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="P16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="R16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="S16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="T16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="U16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="X16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="P17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="R17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="S17">
-        <f t="shared" ref="S17:AK17" si="4">$B17</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="T17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="U17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AG17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AH17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AI17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="4"/>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18:AK18" si="5">$B18</f>
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>

--- a/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\BDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EAA5C7-1C89-4D35-950C-D882EA550009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206CF2D8-C509-4B20-BAB1-5BD012BE8BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30255" yWindow="480" windowWidth="23445" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Notes:</t>
   </si>
@@ -57,6 +58,9 @@
   </si>
   <si>
     <t>BDPbES BAU Dispatch Priority by Electricity Source</t>
+  </si>
+  <si>
+    <t>natural gas nonpeaker</t>
   </si>
   <si>
     <t>geothermal</t>
@@ -104,10 +108,22 @@
     <t>Priority Order (dimensionless)</t>
   </si>
   <si>
-    <t>natural gas steam turbine</t>
+    <t>hard coal w CCS</t>
   </si>
   <si>
-    <t>natural gas combined cycle</t>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
   </si>
 </sst>
 </file>
@@ -178,9 +194,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -218,9 +234,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,26 +269,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,26 +304,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -521,22 +503,22 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -550,19 +532,21 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK18"/>
+  <dimension ref="A1:AK23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2">
         <v>2015</v>
@@ -675,7 +659,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -685,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:AK10" si="0">$B2</f>
+        <f t="shared" ref="D2:AK9" si="0">$B2</f>
         <v>2</v>
       </c>
       <c r="E2">
@@ -823,13 +807,13 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:R13" si="1">$B3</f>
+        <f t="shared" ref="C3:R12" si="1">$B3</f>
         <v>2</v>
       </c>
       <c r="D3">
@@ -971,7 +955,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -981,145 +965,145 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:AK4" si="2">$B4</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="T4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="U4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="V4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="W4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="X4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1267,7 +1251,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1415,7 +1399,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1563,7 +1547,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1711,7 +1695,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1849,17 +1833,17 @@
         <v>2</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D9:AK17" si="2">$B9</f>
         <v>2</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1869,293 +1853,293 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="S10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="T10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="X10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AJ10">
-        <f t="shared" ref="D10:AK18" si="3">$B10</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="L11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="M11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="O11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="P11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="R11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="S11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="V11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="W11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="X11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2165,293 +2149,293 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>$B13</f>
+        <v>2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="N13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="R13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="S13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="T13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="U13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="V13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="W13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="X13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2461,595 +2445,595 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="N14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="S14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="T14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="X14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <f>$B15</f>
+        <f t="shared" ref="C15:R23" si="3">$B15</f>
         <v>2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="N15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="S15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="T15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="X15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:C18" si="4">$B16</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="N16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="S16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="T16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="X16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ref="S17:AK18" si="4">$B17</f>
+        <v>2</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
       <c r="U17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="V17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="X17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D18">
@@ -3113,78 +3097,818 @@
         <v>2</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:AK18" si="5">$B18</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="T18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="V18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="X18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AK18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:AK23" si="5">$B19</f>
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AK23">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>

--- a/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206CF2D8-C509-4B20-BAB1-5BD012BE8BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05002382-202A-4BFB-9F71-B62C33F79EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Notes:</t>
   </si>
@@ -123,14 +123,17 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +145,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -175,6 +185,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,10 +545,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AK24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:AK24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,7 +2602,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:R23" si="3">$B15</f>
+        <f t="shared" ref="C15:R24" si="3">$B15</f>
         <v>2</v>
       </c>
       <c r="D15">
@@ -3185,7 +3198,7 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:AK23" si="5">$B19</f>
+        <f t="shared" ref="D19:AK24" si="5">$B19</f>
         <v>2</v>
       </c>
       <c r="E19">
@@ -3766,7 +3779,7 @@
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B23">
@@ -3909,6 +3922,154 @@
         <v>2</v>
       </c>
       <c r="AK23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AK24">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
